--- a/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Funciones/Funciones.xlsx
+++ b/Google/Certificado profesional de Análisis de datos de Google/2. Ask Questions to Make Data-Driven Decisions/Semana 3/Funciones/Funciones.xlsx
@@ -104,7 +104,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,7 +162,7 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -176,6 +182,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -396,7 +405,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -449,7 +458,7 @@
       <c r="D2" s="7">
         <v>47002</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="9">
         <v>163330</v>
       </c>
       <c r="F2" s="5">
@@ -486,7 +495,7 @@
       <c r="D3" s="3">
         <v>59733</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>158234</v>
       </c>
       <c r="F3" s="5">
@@ -523,7 +532,7 @@
       <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="9">
         <v>167789</v>
       </c>
       <c r="F4" s="5">
